--- a/data/trans_dic/IP25-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,5; 93,75</t>
+          <t>82,71; 93,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,04; 97,51</t>
+          <t>88,9; 97,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,24; 98,16</t>
+          <t>89,07; 98,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,86; 95,94</t>
+          <t>87,67; 96,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,11; 96,99</t>
+          <t>88,42; 97,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,14; 94,28</t>
+          <t>80,64; 94,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,36; 94,0</t>
+          <t>87,34; 94,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,43; 96,45</t>
+          <t>90,6; 96,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>88,15; 95,59</t>
+          <t>87,42; 95,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,01; 90,8</t>
+          <t>86,16; 91,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,59; 93,71</t>
+          <t>89,52; 93,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,31; 94,18</t>
+          <t>90,37; 94,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 93,03</t>
+          <t>88,71; 93,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,35; 90,19</t>
+          <t>85,66; 90,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,93; 93,16</t>
+          <t>88,9; 93,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,18; 91,35</t>
+          <t>88,18; 91,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,48; 91,66</t>
+          <t>87,99; 91,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,55; 93,34</t>
+          <t>90,46; 93,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,94; 86,89</t>
+          <t>76,99; 87,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,23; 91,41</t>
+          <t>83,04; 91,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,26; 90,41</t>
+          <t>82,35; 90,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,68; 91,06</t>
+          <t>82,84; 90,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,24; 92,94</t>
+          <t>84,84; 92,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,75; 90,21</t>
+          <t>81,47; 90,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,65; 88,08</t>
+          <t>81,69; 87,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,52; 91,31</t>
+          <t>85,39; 91,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>83,7; 89,43</t>
+          <t>83,24; 89,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,48; 89,42</t>
+          <t>85,42; 89,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,35; 92,79</t>
+          <t>89,42; 92,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,47; 92,81</t>
+          <t>89,6; 92,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,41; 92,04</t>
+          <t>88,42; 92,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,73</t>
+          <t>87,0; 90,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,94; 91,53</t>
+          <t>87,8; 91,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,14</t>
+          <t>87,56; 90,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,83; 91,38</t>
+          <t>88,89; 91,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89,31; 91,84</t>
+          <t>89,28; 91,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">

--- a/data/trans_dic/IP25-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>87,76; 96,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>88,85; 97,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,61; 94,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,32; 94,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,07; 97,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,16; 98,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>87,24; 93,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>90,68; 96,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,3; 95,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,71; 93,67</t>
+          <t>88,5; 93,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,9; 97,76</t>
+          <t>85,54; 90,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,07; 98,07</t>
+          <t>89,04; 93,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,67; 96,43</t>
+          <t>86,2; 90,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,42; 97,05</t>
+          <t>89,37; 93,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,64; 94,6</t>
+          <t>90,13; 94,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,07</t>
+          <t>88,14; 91,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,6; 96,76</t>
+          <t>88,22; 91,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,42; 95,42</t>
+          <t>90,46; 93,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,16; 91,03</t>
+          <t>82,82; 90,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,52; 93,7</t>
+          <t>85,11; 92,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,37; 94,34</t>
+          <t>81,01; 90,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,71; 93,28</t>
+          <t>77,31; 87,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,66; 90,42</t>
+          <t>83,0; 91,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,9; 93,09</t>
+          <t>82,34; 90,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,18; 91,42</t>
+          <t>81,94; 88,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,99; 91,36</t>
+          <t>85,56; 91,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,46; 93,27</t>
+          <t>83,56; 89,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 87,52</t>
+          <t>88,22; 91,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,04; 91,46</t>
+          <t>87,15; 90,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,35; 90,38</t>
+          <t>88,05; 91,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,84; 90,91</t>
+          <t>85,43; 89,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,84; 92,55</t>
+          <t>89,47; 92,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,47; 90,09</t>
+          <t>89,59; 92,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,69; 87,92</t>
+          <t>87,43; 90,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,39; 91,11</t>
+          <t>88,74; 91,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>83,24; 89,08</t>
+          <t>89,26; 91,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>87,54%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>91,25%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>91,32%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>90,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>89,08%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>89,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>88,88%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>90,2%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>90,6%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>85,42; 89,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>89,42; 92,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>89,6; 92,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>88,42; 92,07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>87,0; 90,79</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>87,8; 91,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>87,56; 90,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>88,89; 91,53</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>89,28; 91,67</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
